--- a/afccp/resources/support/gp_parameters.xlsx
+++ b/afccp/resources/support/gp_parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Griffen Laird\Desktop\Python Projects\afccp\root\core\resources\support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Griffen Laird\Desktop\Python Projects\afccp\afccp\resources\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34760856-00CD-4EBF-A0F5-34EEE9679A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E7AB4-B7FA-414E-A2B7-9E01222B5ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Constraint</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>F_Addl</t>
   </si>
   <si>
     <t>W</t>
@@ -580,9 +577,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -938,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,10 +991,9 @@
         <v>6.9524310000000002E-3</v>
       </c>
       <c r="D2">
-        <f>100/B2</f>
-        <v>1762.5570868005254</v>
-      </c>
-      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2">
@@ -1027,7 +1024,7 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3">
@@ -1058,7 +1055,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4">
@@ -1089,7 +1086,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5">
@@ -1120,7 +1117,7 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6">
@@ -1149,10 +1146,9 @@
         <v>6.1889250999999999E-2</v>
       </c>
       <c r="D7">
-        <f>50/B7</f>
-        <v>1088.1278440533476</v>
-      </c>
-      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7">
@@ -1172,7 +1168,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>0.66972477100000005</v>
@@ -1183,7 +1179,7 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8">
@@ -1203,7 +1199,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>0.17312253</v>
@@ -1214,7 +1210,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9">
@@ -1234,7 +1230,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>0.57480315000000004</v>
@@ -1245,7 +1241,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10">
@@ -1265,7 +1261,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>0.74654849199999995</v>
@@ -1276,7 +1272,7 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11">
@@ -1296,7 +1292,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>9.1345150999999999E-2</v>
@@ -1307,7 +1303,7 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12">
@@ -1327,51 +1323,20 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>7.4300000000000004E-5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="G13">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="I13">
         <f>1</f>
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>4.5821890999999997E-2</v>
-      </c>
-      <c r="C14">
-        <v>8.020358E-3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>$D$14</f>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/afccp/resources/support/gp_parameters.xlsx
+++ b/afccp/resources/support/gp_parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Griffen Laird\Desktop\Python Projects\afccp\afccp\resources\support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/griff007/Desktop/Python Projects/afccp/afccp/resources/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027E7AB4-B7FA-414E-A2B7-9E01222B5ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF703FD-44FE-714C-B489-CB54B526B447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="460" windowWidth="20840" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weights and Scaling" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Constraint</t>
   </si>
@@ -48,18 +48,6 @@
     <t>Run Reward</t>
   </si>
   <si>
-    <t>Run 1 Penalty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run 1 Reward </t>
-  </si>
-  <si>
-    <t>Run 2 Penalty</t>
-  </si>
-  <si>
-    <t>Run 2 Reward</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -94,6 +82,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Penalty Weight</t>
+  </si>
+  <si>
+    <t>Reward Weight</t>
   </si>
 </sst>
 </file>
@@ -936,22 +930,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,21 +963,15 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>5.6735751000000001E-2</v>
@@ -996,24 +985,16 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <f>100/$B$2</f>
-        <v>1762.5570868005254</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>100/$B$2</f>
-        <v>1762.5570868005254</v>
-      </c>
-      <c r="I2">
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>4.5821890999999997E-2</v>
@@ -1027,24 +1008,16 @@
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3">
-        <f>75/$B$3</f>
-        <v>1636.7722580458324</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>100/$B$3</f>
-        <v>2182.3630107277763</v>
-      </c>
-      <c r="I3">
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.12274924700000001</v>
@@ -1058,24 +1031,16 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="F4">
-        <f>75/$B$4</f>
-        <v>611.0017114809674</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>100/$B$4</f>
-        <v>814.66894864128983</v>
-      </c>
-      <c r="I4">
+      <c r="F4" s="2">
+        <v>90</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.175498347</v>
@@ -1089,24 +1054,16 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5">
-        <f>25/$B$5</f>
-        <v>142.45148417266859</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>80/$B$5</f>
-        <v>455.84474935253951</v>
-      </c>
-      <c r="I5">
+      <c r="F5" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1120,24 +1077,16 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6">
-        <f>25/$B$6</f>
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>80/$B$6</f>
-        <v>80</v>
-      </c>
-      <c r="I6">
+      <c r="F6" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>4.5950483E-2</v>
@@ -1151,24 +1100,16 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7">
-        <f>25/$B$7</f>
-        <v>544.06392202667382</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>80/$B$7</f>
-        <v>1741.004550485356</v>
-      </c>
-      <c r="I7">
+      <c r="F7" s="2">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0.66972477100000005</v>
@@ -1182,24 +1123,16 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8">
-        <f>50/$B$8</f>
-        <v>74.657534206689803</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>90/$B$8</f>
-        <v>134.38356157204166</v>
-      </c>
-      <c r="I8">
+      <c r="F8" s="2">
+        <v>50</v>
+      </c>
+      <c r="G8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0.17312253</v>
@@ -1213,24 +1146,16 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9">
-        <f>50/$B$9</f>
-        <v>288.81278479467693</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>90/$B$9</f>
-        <v>519.86301263041844</v>
-      </c>
-      <c r="I9">
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>0.57480315000000004</v>
@@ -1244,24 +1169,16 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10">
-        <f>50/$B$10</f>
-        <v>86.986301310283352</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>90/$B$10</f>
-        <v>156.57534235851003</v>
-      </c>
-      <c r="I10">
+      <c r="F10" s="2">
+        <v>50</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>0.74654849199999995</v>
@@ -1275,24 +1192,16 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11">
-        <f>50/$B$11</f>
-        <v>66.974885805542556</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f>90/$B$11</f>
-        <v>120.55479444997661</v>
-      </c>
-      <c r="I11">
+      <c r="F11" s="2">
+        <v>50</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9.1345150999999999E-2</v>
@@ -1306,37 +1215,34 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12">
-        <f>25/$B$12</f>
-        <v>273.68721520861027</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>80/$B$12</f>
-        <v>875.79908866755284</v>
-      </c>
-      <c r="I12">
+      <c r="F12" s="2">
+        <v>25</v>
+      </c>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>7.4300000000000004E-5</v>
       </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <f>1</f>
-        <v>1</v>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
